--- a/docs/source/_static/testcase/集成测试/统计用电数据-1200.xlsx
+++ b/docs/source/_static/testcase/集成测试/统计用电数据-1200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B46F7DC-D4E3-406D-8E91-ED5B8668BF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E975B3C0-294D-48D1-8D1E-391873A79F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1438,6 +1438,10 @@
   <si>
     <t>空调机_开/关机
 状态改变后，及时上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1605,7 +1609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1692,53 +1696,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1753,19 +1718,54 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2052,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2071,111 +2071,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="33"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -2185,13 +2185,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -2199,9 +2199,9 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="35"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -2209,9 +2209,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2255,16 +2255,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A17" s="37">
+      <c r="A17" s="53">
         <v>1100</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="46">
         <v>0</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="24" t="s">
@@ -2274,9 +2274,9 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.5">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="14" t="s">
         <v>26</v>
       </c>
@@ -2290,10 +2290,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="36" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -2306,10 +2306,10 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="210.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="37"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="36"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="16" t="s">
         <v>29</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="37"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="19"/>
@@ -2356,16 +2356,16 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A23" s="40">
+      <c r="A23" s="47">
         <v>1101</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="46">
         <v>0</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="24" t="s">
@@ -2375,10 +2375,10 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="83.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="40"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="46" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="34" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="14" t="s">
@@ -2390,10 +2390,10 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="40"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="34" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="48" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="14" t="s">
@@ -2405,10 +2405,10 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
-      <c r="A26" s="40"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="16" t="s">
         <v>30</v>
       </c>
@@ -2418,10 +2418,10 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="84.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="40"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="16" t="s">
         <v>31</v>
       </c>
@@ -2463,16 +2463,16 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="41">
+      <c r="A30" s="51">
         <v>1102</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="46">
         <v>0</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -2481,10 +2481,10 @@
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
-      <c r="A31" s="41"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="46" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="34" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="14" t="s">
@@ -2495,10 +2495,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A32" s="41"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="34" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="48" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="14" t="s">
@@ -2509,10 +2509,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="41"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="34"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="16" t="s">
         <v>43</v>
       </c>
@@ -2521,10 +2521,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="41"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="34"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="16" t="s">
         <v>38</v>
       </c>
@@ -2565,38 +2565,38 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A37" s="47">
+      <c r="A37" s="50">
         <v>1103</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="46">
         <v>1102</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="45" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="47"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="42"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="47"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="42"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="45"/>
       <c r="E39" s="14" t="s">
         <v>45</v>
       </c>
@@ -2604,11 +2604,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
+    <row r="40" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
       <c r="A41" s="6" t="s">
@@ -2637,21 +2637,20 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="56.4" x14ac:dyDescent="0.5">
-      <c r="A42" s="51">
+      <c r="A42" s="38">
         <v>1104</v>
       </c>
       <c r="B42" s="31">
         <v>0</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="54"/>
+    <row r="43" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="D43" s="41"/>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
       <c r="A44" s="6" t="s">
@@ -2680,37 +2679,37 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="102.3" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="56">
+      <c r="A45" s="44">
         <v>1105</v>
       </c>
-      <c r="B45" s="39">
+      <c r="B45" s="46">
         <v>1102</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="45" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="56"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="42"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="56"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="42"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="45"/>
       <c r="E47" s="14" t="s">
         <v>45</v>
       </c>
@@ -2719,35 +2718,81 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="58"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43"/>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A50" s="1">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A52" s="1">
+        <v>1120</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:F2"/>
@@ -2759,6 +2804,28 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
